--- a/biology/Zoologie/Drepanoistodontidae/Drepanoistodontidae.xlsx
+++ b/biology/Zoologie/Drepanoistodontidae/Drepanoistodontidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Drepanoistodontidae sont une famille éteinte de conodontes.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Drepanoistodontidae a été créée en 1978 par Lars E. Fåhraeus et Godfrey S. Nowlan (d) initialement comme une sous-famille des Distacodontidae sous le taxon Drepanoistodontinae[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Drepanoistodontidae a été créée en 1978 par Lars E. Fåhraeus et Godfrey S. Nowlan (d) initialement comme une sous-famille des Distacodontidae sous le taxon Drepanoistodontinae.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste de genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (26 juillet 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (26 juillet 2022) :
 †Drepanoistodus Lindstrom, 1971
 †Laurentoscandodus Landing et al., 1996
 †Nordiodus Serpagli, 1967
@@ -578,7 +594,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Lars E. Fåhraeus et Godfrey S. Nowlan, « Franconian (Late Cambrian) to Early Champlainian (Middle Ordovician) conodonts from the Cow Head Group, western Newfoundland », Journal of Paleontology, Société de paléontologie, vol. 52, no 2,‎ 1er mars 1978, p. 444–471 (ISSN 0022-3360 et 1937-2337, JSTOR 1303716)</t>
         </is>
